--- a/Perfiles_estudiantes_de_Probabilidad_y_estadística.xlsx
+++ b/Perfiles_estudiantes_de_Probabilidad_y_estadística.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dra. Elena\Documents\dra.escom\respaldo\DOCUMENTOS\ESCOM AGOSTO DICIEMBRE 2019\PROYECTO 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shado\OneDrive\Documentos\EstilosAprendizajePy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82602637-4763-400F-9F45-C3C1326D7DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados perfiles" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="157">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -502,7 +503,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
@@ -823,11 +824,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,6 +2430,9 @@
       <c r="AI11" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="AJ11" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="AK11" s="2" t="s">
         <v>83</v>
       </c>
@@ -2475,7 +2479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2487,10 +2491,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Perfiles_estudiantes_de_Probabilidad_y_estadística.xlsx
+++ b/Perfiles_estudiantes_de_Probabilidad_y_estadística.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shado\OneDrive\Documentos\EstilosAprendizajePy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82602637-4763-400F-9F45-C3C1326D7DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5821C6AC-8523-41C7-ACAF-145D79CD65E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="1755" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados perfiles" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja ID" sheetId="2" r:id="rId2"/>
     <sheet name="Base de datos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="160">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -498,6 +498,15 @@
   </si>
   <si>
     <t>b) material abstracto (conceptos, teorías)</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>escuela</t>
+  </si>
+  <si>
+    <t>semestre</t>
   </si>
 </sst>
 </file>
@@ -825,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW11"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +846,7 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,143 +856,152 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43565.520722025467</v>
       </c>
@@ -993,146 +1011,152 @@
       <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43565.523005902782</v>
       </c>
@@ -1142,146 +1166,152 @@
       <c r="C3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43565.524503298613</v>
       </c>
@@ -1291,146 +1321,152 @@
       <c r="C4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AN4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AP4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AT4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AU4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AV4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AU4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AX4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43565.524779976855</v>
       </c>
@@ -1440,146 +1476,152 @@
       <c r="C5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AL5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AM5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AN5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AO5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AP5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AR5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AQ5" s="2" t="s">
+      <c r="AS5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AT5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AU5" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AV5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AU5" s="2" t="s">
+      <c r="AW5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AX5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW5" s="2" t="s">
+      <c r="AY5" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43565.525230509258</v>
       </c>
@@ -1589,146 +1631,152 @@
       <c r="C6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AL6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AM6" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AN6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AO6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AP6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AO6" s="2" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AR6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AQ6" s="2" t="s">
+      <c r="AS6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AT6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AS6" s="2" t="s">
+      <c r="AU6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AV6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AU6" s="2" t="s">
+      <c r="AW6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AX6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW6" s="2" t="s">
+      <c r="AY6" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43570.316959629628</v>
       </c>
@@ -1738,146 +1786,152 @@
       <c r="C7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="2">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AM7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AN7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AO7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AR7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AT7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AS7" s="2" t="s">
+      <c r="AU7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AV7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AX7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43570.325818240744</v>
       </c>
@@ -1887,146 +1941,152 @@
       <c r="C8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AB8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB8" s="2" t="s">
+      <c r="AD8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AE8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AL8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AM8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AN8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AO8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AP8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AO8" s="2" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AR8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AS8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AT8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AS8" s="2" t="s">
+      <c r="AU8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AT8" s="2" t="s">
+      <c r="AV8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AU8" s="2" t="s">
+      <c r="AW8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AX8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AY8" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43570.328591365746</v>
       </c>
@@ -2036,146 +2096,152 @@
       <c r="C9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="X9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AB9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AE9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AF9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AL9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AM9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AN9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AM9" s="2" t="s">
+      <c r="AO9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AP9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AO9" s="2" t="s">
+      <c r="AQ9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AR9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AQ9" s="2" t="s">
+      <c r="AS9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AT9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AS9" s="2" t="s">
+      <c r="AU9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AT9" s="2" t="s">
+      <c r="AV9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AU9" s="2" t="s">
+      <c r="AW9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AX9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW9" s="2" t="s">
+      <c r="AY9" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43570.335962800928</v>
       </c>
@@ -2185,146 +2251,152 @@
       <c r="C10" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AM10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AN10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AM10" s="2" t="s">
+      <c r="AO10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AP10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AO10" s="2" t="s">
+      <c r="AQ10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AR10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AQ10" s="2" t="s">
+      <c r="AS10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AR10" s="2" t="s">
+      <c r="AT10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AS10" s="2" t="s">
+      <c r="AU10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AT10" s="2" t="s">
+      <c r="AV10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AU10" s="2" t="s">
+      <c r="AW10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AV10" s="2" t="s">
+      <c r="AX10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AW10" s="2" t="s">
+      <c r="AY10" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43570.336990729164</v>
       </c>
@@ -2334,142 +2406,148 @@
       <c r="C11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AH11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AK11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AL11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AM11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AN11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AO11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AP11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AO11" s="2" t="s">
+      <c r="AQ11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AR11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AQ11" s="2" t="s">
+      <c r="AS11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AR11" s="2" t="s">
+      <c r="AT11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AS11" s="2" t="s">
+      <c r="AU11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AT11" s="2" t="s">
+      <c r="AV11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AU11" s="2" t="s">
+      <c r="AW11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AV11" s="2" t="s">
+      <c r="AX11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AW11" s="2" t="s">
+      <c r="AY11" s="2" t="s">
         <v>122</v>
       </c>
     </row>
